--- a/data/output/predictions/y_test_exportaciones.xlsx
+++ b/data/output/predictions/y_test_exportaciones.xlsx
@@ -402,7 +402,7 @@
         <v>44926</v>
       </c>
       <c r="B2">
-        <v>34974.359375</v>
+        <v>34910.72377962963</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -410,7 +410,7 @@
         <v>45016</v>
       </c>
       <c r="B3">
-        <v>34974.359375</v>
+        <v>34910.72377962963</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -418,7 +418,7 @@
         <v>45107</v>
       </c>
       <c r="B4">
-        <v>36092.75</v>
+        <v>34910.72377962963</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -426,7 +426,7 @@
         <v>45199</v>
       </c>
       <c r="B5">
-        <v>36092.75</v>
+        <v>34552.30513257081</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -434,7 +434,7 @@
         <v>45291</v>
       </c>
       <c r="B6">
-        <v>36092.75</v>
+        <v>34456.68284923748</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -442,7 +442,7 @@
         <v>45382</v>
       </c>
       <c r="B7">
-        <v>36092.75</v>
+        <v>34456.68284923748</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -450,7 +450,7 @@
         <v>45473</v>
       </c>
       <c r="B8">
-        <v>36092.75</v>
+        <v>34456.68284923748</v>
       </c>
     </row>
   </sheetData>
